--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d1027016-Reviews-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Econo-Lodge-Long-Beach.h1956087.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528308265457&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=6b161c26-49b7-4d72-b7ed-9011c903b005&amp;mctc=9&amp;exp_dp=84&amp;exp_ts=1528308265962&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,330 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r504617982-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>1027016</t>
+  </si>
+  <si>
+    <t>504617982</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Average hotel, but clean with reasonable rates</t>
+  </si>
+  <si>
+    <t>An average place to stay, right on the coast highway. Room was clean, plenty of plug-ins to recharge devices. Room rate includes a free continental breakfast. It's not a fancy place, but if you are on a summer road trip it'll do just fine.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r361920245-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>361920245</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!
+We stayed here because it was conveniently close to the areas we came to visit. We paid for 2 nights and the guy charged us for 2 nights. Yet, we only got to stay 1 night! We got there April 1st to check out on April 3rd (got kicked out on April 2nd).
+My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was...ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!We stayed here because it was conveniently close to the areas we came to visit. We paid for 2 nights and the guy charged us for 2 nights. Yet, we only got to stay 1 night! We got there April 1st to check out on April 3rd (got kicked out on April 2nd).My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was ruined!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!
+We stayed here because it was conveniently close to the areas we came to visit. We paid for 2 nights and the guy charged us for 2 nights. Yet, we only got to stay 1 night! We got there April 1st to check out on April 3rd (got kicked out on April 2nd).
+My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was...ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!We stayed here because it was conveniently close to the areas we came to visit. We paid for 2 nights and the guy charged us for 2 nights. Yet, we only got to stay 1 night! We got there April 1st to check out on April 3rd (got kicked out on April 2nd).My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was ruined!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r350130653-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>350130653</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Econo on service not on price</t>
+  </si>
+  <si>
+    <t>Requested handicap accessible they place me on 2nd floor(walk up concrete steps).Not easy to navigate with cane and bag. Got inside no place to hang clothes. Or iron/ironing board available. No TV remote no way to call downstairs, So had to go back downstairs again. Tried to take hot shower, loupe warm water and no water pressure only a dribble out of showerhead. Would have rather slept in vehicle at a rest stop.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r288336431-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>288336431</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Straight facts</t>
+  </si>
+  <si>
+    <t>Straight facts -the beds are hard like sleeping in the floor would be better - the walls are thin. You hear everything outside even street noise - there is 4 parking spots and a handi cap spot in the "main" lot. Then you have to park in the back. Which is almost impossible with a larger vehicle suv or truck. -rooms are super small -there is mold in the bathroom -no top lock on the door. So your door only locks from the outside However for the price. Under 100$ a night. I have seen worse.  So over all not to bad but not great. Pictures include the parking area.  The spot of mold and the dirty window and the sink area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Straight facts -the beds are hard like sleeping in the floor would be better - the walls are thin. You hear everything outside even street noise - there is 4 parking spots and a handi cap spot in the "main" lot. Then you have to park in the back. Which is almost impossible with a larger vehicle suv or truck. -rooms are super small -there is mold in the bathroom -no top lock on the door. So your door only locks from the outside However for the price. Under 100$ a night. I have seen worse.  So over all not to bad but not great. Pictures include the parking area.  The spot of mold and the dirty window and the sink area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r251656025-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>251656025</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Inexpensive, but you pay the price</t>
+  </si>
+  <si>
+    <t>It is a small hotel, located reasonably close to the beach.  However, the Pacific Coast Highway noise can be over powering.  The bedding needs an upgrade.  Continental breakfasts were meager as far as options.  Or am I the only one who thinks tea has to be an option for breakfast?  When my wife unrolled her "clean" towel there was an 8 inch long hair inside.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r217348687-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>217348687</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Crooks</t>
+  </si>
+  <si>
+    <t>These people are crooks. We had a flight delay and were unable to make it the first night. We called to ask if checking in over the phone would be fine and were told yes. The next day we went to check in and they said the reservation had been cancelled. The man working there lied to us and the booking agency. We ended up having to pay for a night and lost our reservation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r194460801-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>194460801</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Discriminated</t>
+  </si>
+  <si>
+    <t>I was asked to leave and return my key due to my service dog.  I presented proper identification at check in however attendant said per manager request I need to return my key and leave.  It's was not a good feeling!!! I have filed a formal complaint with ADA.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r190314269-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>190314269</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Worst Stay We Have Ever Had</t>
+  </si>
+  <si>
+    <t>This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird...This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird and awkward.  The shower stall and the toilet were directly next to the bed and you had to walk around the corner to the sink which was right next to the door.  There was absolutely no water pressure in the shower, no shelves to put shampoo or soap on and there was only one light bulb working about the mirror at the sink.  If all of this was not enough as the night went on, and we turned the TV off,  the traffic noise was just horrendous and sounded like a semi truck was coming through the wall at any point during the night. Then there was the constant rattling of the pipes in the bathroom keep us awake all night. Neither one of us got any sleep at all.   Morning could not come fast enough for us.  Breakfast here was a joke.  Pre-wrapped danishes and  warm Sunny Delight, but I  would not expect any more after the night I had just had.  Upon check out, I wanted to discuss my night with the clerk, however he was too busy outside dusting off his car in one of the four prime parking spots up top for guests and told me to just slide my key card through the slot in the bullet proof glass.    Customer Service at it's finest.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird...This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird and awkward.  The shower stall and the toilet were directly next to the bed and you had to walk around the corner to the sink which was right next to the door.  There was absolutely no water pressure in the shower, no shelves to put shampoo or soap on and there was only one light bulb working about the mirror at the sink.  If all of this was not enough as the night went on, and we turned the TV off,  the traffic noise was just horrendous and sounded like a semi truck was coming through the wall at any point during the night. Then there was the constant rattling of the pipes in the bathroom keep us awake all night. Neither one of us got any sleep at all.   Morning could not come fast enough for us.  Breakfast here was a joke.  Pre-wrapped danishes and  warm Sunny Delight, but I  would not expect any more after the night I had just had.  Upon check out, I wanted to discuss my night with the clerk, however he was too busy outside dusting off his car in one of the four prime parking spots up top for guests and told me to just slide my key card through the slot in the bullet proof glass.    Customer Service at it's finest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r186639706-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>186639706</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>WITH A FEW CHANGES THIS COULD BE A GOOD PLACE TO SPEND THE NIGHT NEAR AIRPORT</t>
+  </si>
+  <si>
+    <t>Good points: very convenient to airport without having to deal with airport noise.  Enclosed parking area is great if you get there early.  Neighborhood surrounding this small lodge appeared to be a good one. The outside of the lodge is well-kept.  Negative points: at first glance it looked okay, but in my opinion it could have been cleaner (check out the baseboards and along the floor edge). Bathroom was clean, except the tub appeared to have mold around the edge of the tub. Whoever made the bed doesn't know how to make a bed properly.  The breakfast was very scanty and kind of late (7:30) with only sweet offerings (apples should have been thrown out long ago).  My biggest complaint is that they wouldn't print out my boarding pass and so we had to wait until we got to the airport to do so (ended up okay since the airport was not busy). Really, with just a few small changes, this could be a great place to stay, especially if you are flying out of Long Beach airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good points: very convenient to airport without having to deal with airport noise.  Enclosed parking area is great if you get there early.  Neighborhood surrounding this small lodge appeared to be a good one. The outside of the lodge is well-kept.  Negative points: at first glance it looked okay, but in my opinion it could have been cleaner (check out the baseboards and along the floor edge). Bathroom was clean, except the tub appeared to have mold around the edge of the tub. Whoever made the bed doesn't know how to make a bed properly.  The breakfast was very scanty and kind of late (7:30) with only sweet offerings (apples should have been thrown out long ago).  My biggest complaint is that they wouldn't print out my boarding pass and so we had to wait until we got to the airport to do so (ended up okay since the airport was not busy). Really, with just a few small changes, this could be a great place to stay, especially if you are flying out of Long Beach airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r147857809-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>147857809</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>Room was nice. Staff were attentive.</t>
+  </si>
+  <si>
+    <t>After seeing some nasty reviews, I thought this place might be a dump, but it wasn't. The staff were courteous and the room was nice a clean. When a neighbor was opening and closing their door repetitively at 1am, the staff were attentive to my concerns. The hotel was on a busy street and the street noise was a bit bothersome, but I put in some earplugs and slept very comfortably--other than the neighbor problem, but that's not the management's fault.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r142068651-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>142068651</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>It's an ECONO lodge hotel, and the price was right!</t>
+  </si>
+  <si>
+    <t>I booked this room through Expedia and found it to be worth every penny I paid. 
+I was looking for a budget hotel that was safe, clean, and had a parking spot.  
+This hotel was all of those 3 things. 
+Being a big fan of a free breakfast, I chose this over other local budget hotels, because it did advertise the free continental breakfast.  
+I have booked many different budget hotels for myself when I travel solo, and this hotel exceeded my expectations in several ways!
+I stayed in a non-smoking King room.
+The room was clean and quiet and the staff were friendly.
+I did not have any concerns about the cleanliness of the bedding, carpeting, or anything else. 
+I would say the decor was outdated, but the decor is not the reason I stayed here - the price is.
+I also agree with others that the bed was hard, but I didn't wake up with a sore back or neck, so I am not concerned about that.   
+The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like...I booked this room through Expedia and found it to be worth every penny I paid. I was looking for a budget hotel that was safe, clean, and had a parking spot.  This hotel was all of those 3 things. Being a big fan of a free breakfast, I chose this over other local budget hotels, because it did advertise the free continental breakfast.  I have booked many different budget hotels for myself when I travel solo, and this hotel exceeded my expectations in several ways!I stayed in a non-smoking King room.The room was clean and quiet and the staff were friendly.I did not have any concerns about the cleanliness of the bedding, carpeting, or anything else. I would say the decor was outdated, but the decor is not the reason I stayed here - the price is.I also agree with others that the bed was hard, but I didn't wake up with a sore back or neck, so I am not concerned about that.   The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like hotels where the sink is separate from the rest of the bathroom, but I could see how some people might not like that. The continental breakfast also exceeded my expectations.  As with any budget hotel around this price point, I expected a pre-wrapped danish and a coffee.  Those two were offered, but there was also Sunny D orange juice, bananas, apples, tangerines, croissants, and mini brownies (of which I took a few for the road!) + Free USA Today newspaper.  I was definitely impressed.  It was obvious that the staff cared about how the breakfast was laid out, too.  One additional point I'd like to make is that this hotel had free wi-fi.  I stay in hotels that are several price points higher when I am on the company dime, and those hotels often charge $10-15 to use the wi-fi.  I would never pay that, but to have FREE WIFI at this hotel was awesome.  The doors for the motel rooms face inward toward a parking lot, but I did not hear traffic or noise through the thick steel door.  The rooms also have electronic key card access, so that was also a plus.   Other people have said that the area looked a bit sketchy.  It was on a main busy road, with several small businesses nearby, but I didn't see people loitering or even walking on foot - it was mainly car traffic on the Pacific Coast Highway out front.  All in all, I felt my stay was well above average, and would come back again if I were staying on a tight budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I booked this room through Expedia and found it to be worth every penny I paid. 
+I was looking for a budget hotel that was safe, clean, and had a parking spot.  
+This hotel was all of those 3 things. 
+Being a big fan of a free breakfast, I chose this over other local budget hotels, because it did advertise the free continental breakfast.  
+I have booked many different budget hotels for myself when I travel solo, and this hotel exceeded my expectations in several ways!
+I stayed in a non-smoking King room.
+The room was clean and quiet and the staff were friendly.
+I did not have any concerns about the cleanliness of the bedding, carpeting, or anything else. 
+I would say the decor was outdated, but the decor is not the reason I stayed here - the price is.
+I also agree with others that the bed was hard, but I didn't wake up with a sore back or neck, so I am not concerned about that.   
+The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like...I booked this room through Expedia and found it to be worth every penny I paid. I was looking for a budget hotel that was safe, clean, and had a parking spot.  This hotel was all of those 3 things. Being a big fan of a free breakfast, I chose this over other local budget hotels, because it did advertise the free continental breakfast.  I have booked many different budget hotels for myself when I travel solo, and this hotel exceeded my expectations in several ways!I stayed in a non-smoking King room.The room was clean and quiet and the staff were friendly.I did not have any concerns about the cleanliness of the bedding, carpeting, or anything else. I would say the decor was outdated, but the decor is not the reason I stayed here - the price is.I also agree with others that the bed was hard, but I didn't wake up with a sore back or neck, so I am not concerned about that.   The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like hotels where the sink is separate from the rest of the bathroom, but I could see how some people might not like that. The continental breakfast also exceeded my expectations.  As with any budget hotel around this price point, I expected a pre-wrapped danish and a coffee.  Those two were offered, but there was also Sunny D orange juice, bananas, apples, tangerines, croissants, and mini brownies (of which I took a few for the road!) + Free USA Today newspaper.  I was definitely impressed.  It was obvious that the staff cared about how the breakfast was laid out, too.  One additional point I'd like to make is that this hotel had free wi-fi.  I stay in hotels that are several price points higher when I am on the company dime, and those hotels often charge $10-15 to use the wi-fi.  I would never pay that, but to have FREE WIFI at this hotel was awesome.  The doors for the motel rooms face inward toward a parking lot, but I did not hear traffic or noise through the thick steel door.  The rooms also have electronic key card access, so that was also a plus.   Other people have said that the area looked a bit sketchy.  It was on a main busy road, with several small businesses nearby, but I didn't see people loitering or even walking on foot - it was mainly car traffic on the Pacific Coast Highway out front.  All in all, I felt my stay was well above average, and would come back again if I were staying on a tight budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r139955207-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>139955207</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>The room was OK, but management is rude.</t>
+  </si>
+  <si>
+    <t>I reserved a room for my son and his wife for 2 nights. My son called me to tell me that he won't be staying after first night because the management is very rude. Communication problem seems to be one of the  factors. The owner seems to have difficulity with English.  My son did not appreciate  yelled at by the management....possibly difference of Indian custom when dealing with customer.   Just like anything else - when things goes wrong, real management style shows up.So, he moved to Queen Mary ship and had a wonderful night.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r121763468-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>121763468</t>
+  </si>
+  <si>
+    <t>12/15/2011</t>
+  </si>
+  <si>
+    <t>A cheap clean place to sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is small, old, close to the highway (traffic noise). But it's cheap, clean, 'remodeled,' and a good option if you need a room for the night. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r52139380-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>52139380</t>
+  </si>
+  <si>
+    <t>12/29/2009</t>
+  </si>
+  <si>
+    <t>Bring your earplugs and pillows</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Econo Lodge for one night before an early flight out of LGB. Pros: Rooms have been updated and ours was very clean. I did not feel uncomfortable walking around in bare feet.  The family that runs it was friendly, even if they were a tad unprofessional and disorganized. Hot coffee and muffins in the morning. Nice BIG LCD flat screen TV came in very handy for the bowl game that night. Cons: It is on the PCH and the traffic noise is loud and constant. Parking is a joke. If you don't grab one of about 4 spots in front you are forced into a dark scary back lot. In room appliances are super loud, but I simply unplugged everything for the night. This was the second most uncomfortable bed I have ever slept in; hard as a rock! (The first most uncomfortable bed was on the Queen Mary, also in Long Beach) If you are looking for some entertainment, perhaps head next door to the "Out of the Closet" thrift store. They advertise "FREE HIV TESTING". For one night it was tolerable, but I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Econo Lodge for one night before an early flight out of LGB. Pros: Rooms have been updated and ours was very clean. I did not feel uncomfortable walking around in bare feet.  The family that runs it was friendly, even if they were a tad unprofessional and disorganized. Hot coffee and muffins in the morning. Nice BIG LCD flat screen TV came in very handy for the bowl game that night. Cons: It is on the PCH and the traffic noise is loud and constant. Parking is a joke. If you don't grab one of about 4 spots in front you are forced into a dark scary back lot. In room appliances are super loud, but I simply unplugged everything for the night. This was the second most uncomfortable bed I have ever slept in; hard as a rock! (The first most uncomfortable bed was on the Queen Mary, also in Long Beach) If you are looking for some entertainment, perhaps head next door to the "Out of the Closet" thrift store. They advertise "FREE HIV TESTING". For one night it was tolerable, but I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r23138724-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>23138724</t>
+  </si>
+  <si>
+    <t>12/31/2008</t>
+  </si>
+  <si>
+    <t>Renovated, OK but not WOW!</t>
+  </si>
+  <si>
+    <t>PROS:The rooms were newly renovated.. they are LARGE.. at least my room.. 202. Flat TV.. fridge.. microwave.. CONS:No coffee maker in the room.. no alarm clock.. no 24-hr coffee at the reception (as I used to in other EconoLodge's).. no facial tissues.. Lousy breakfast of only 3 types of packaged pastry and coffee.. I hope these missing things are all just because it is renovated and that they will fix this.. however, the reception lady was not very friendly and when I asked about the coffee maker she said they are only required in the suite rooms.. although she allowed me to use the coffee maker down there to make my coffee myself.. (yeah.. i had to get the water and the coffee..!!!).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>PROS:The rooms were newly renovated.. they are LARGE.. at least my room.. 202. Flat TV.. fridge.. microwave.. CONS:No coffee maker in the room.. no alarm clock.. no 24-hr coffee at the reception (as I used to in other EconoLodge's).. no facial tissues.. Lousy breakfast of only 3 types of packaged pastry and coffee.. I hope these missing things are all just because it is renovated and that they will fix this.. however, the reception lady was not very friendly and when I asked about the coffee maker she said they are only required in the suite rooms.. although she allowed me to use the coffee maker down there to make my coffee myself.. (yeah.. i had to get the water and the coffee..!!!).More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +972,949 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ruth S</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>OA25</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r361920245-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -208,6 +214,9 @@
 My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was...ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!We stayed here because it was conveniently close to the areas we came to visit. We paid for 2 nights and the guy charged us for 2 nights. Yet, we only got to stay 1 night! We got there April 1st to check out on April 3rd (got kicked out on April 2nd).My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was ruined!!!More</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r350130653-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Laurin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r288336431-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -250,6 +262,9 @@
     <t>Straight facts -the beds are hard like sleeping in the floor would be better - the walls are thin. You hear everything outside even street noise - there is 4 parking spots and a handi cap spot in the "main" lot. Then you have to park in the back. Which is almost impossible with a larger vehicle suv or truck. -rooms are super small -there is mold in the bathroom -no top lock on the door. So your door only locks from the outside However for the price. Under 100$ a night. I have seen worse.  So over all not to bad but not great. Pictures include the parking area.  The spot of mold and the dirty window and the sink area.More</t>
   </si>
   <si>
+    <t>Glenn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r251656025-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -268,6 +283,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Kperry1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r217348687-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -283,6 +301,9 @@
     <t>These people are crooks. We had a flight delay and were unable to make it the first night. We called to ask if checking in over the phone would be fine and were told yes. The next day we went to check in and they said the reservation had been cancelled. The man working there lied to us and the booking agency. We ended up having to pay for a night and lost our reservation.</t>
   </si>
   <si>
+    <t>Martino C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r194460801-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -301,6 +322,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>D H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r190314269-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -322,6 +346,9 @@
     <t>This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird...This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird and awkward.  The shower stall and the toilet were directly next to the bed and you had to walk around the corner to the sink which was right next to the door.  There was absolutely no water pressure in the shower, no shelves to put shampoo or soap on and there was only one light bulb working about the mirror at the sink.  If all of this was not enough as the night went on, and we turned the TV off,  the traffic noise was just horrendous and sounded like a semi truck was coming through the wall at any point during the night. Then there was the constant rattling of the pipes in the bathroom keep us awake all night. Neither one of us got any sleep at all.   Morning could not come fast enough for us.  Breakfast here was a joke.  Pre-wrapped danishes and  warm Sunny Delight, but I  would not expect any more after the night I had just had.  Upon check out, I wanted to discuss my night with the clerk, however he was too busy outside dusting off his car in one of the four prime parking spots up top for guests and told me to just slide my key card through the slot in the bullet proof glass.    Customer Service at it's finest.More</t>
   </si>
   <si>
+    <t>TeacherReed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r186639706-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -340,6 +367,9 @@
     <t>Good points: very convenient to airport without having to deal with airport noise.  Enclosed parking area is great if you get there early.  Neighborhood surrounding this small lodge appeared to be a good one. The outside of the lodge is well-kept.  Negative points: at first glance it looked okay, but in my opinion it could have been cleaner (check out the baseboards and along the floor edge). Bathroom was clean, except the tub appeared to have mold around the edge of the tub. Whoever made the bed doesn't know how to make a bed properly.  The breakfast was very scanty and kind of late (7:30) with only sweet offerings (apples should have been thrown out long ago).  My biggest complaint is that they wouldn't print out my boarding pass and so we had to wait until we got to the airport to do so (ended up okay since the airport was not busy). Really, with just a few small changes, this could be a great place to stay, especially if you are flying out of Long Beach airport.More</t>
   </si>
   <si>
+    <t>Kim H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r147857809-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
   </si>
   <si>
     <t>December 2012</t>
+  </si>
+  <si>
+    <t>daveengel1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r142068651-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -399,6 +432,9 @@
 The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like...I booked this room through Expedia and found it to be worth every penny I paid. I was looking for a budget hotel that was safe, clean, and had a parking spot.  This hotel was all of those 3 things. Being a big fan of a free breakfast, I chose this over other local budget hotels, because it did advertise the free continental breakfast.  I have booked many different budget hotels for myself when I travel solo, and this hotel exceeded my expectations in several ways!I stayed in a non-smoking King room.The room was clean and quiet and the staff were friendly.I did not have any concerns about the cleanliness of the bedding, carpeting, or anything else. I would say the decor was outdated, but the decor is not the reason I stayed here - the price is.I also agree with others that the bed was hard, but I didn't wake up with a sore back or neck, so I am not concerned about that.   The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like hotels where the sink is separate from the rest of the bathroom, but I could see how some people might not like that. The continental breakfast also exceeded my expectations.  As with any budget hotel around this price point, I expected a pre-wrapped danish and a coffee.  Those two were offered, but there was also Sunny D orange juice, bananas, apples, tangerines, croissants, and mini brownies (of which I took a few for the road!) + Free USA Today newspaper.  I was definitely impressed.  It was obvious that the staff cared about how the breakfast was laid out, too.  One additional point I'd like to make is that this hotel had free wi-fi.  I stay in hotels that are several price points higher when I am on the company dime, and those hotels often charge $10-15 to use the wi-fi.  I would never pay that, but to have FREE WIFI at this hotel was awesome.  The doors for the motel rooms face inward toward a parking lot, but I did not hear traffic or noise through the thick steel door.  The rooms also have electronic key card access, so that was also a plus.   Other people have said that the area looked a bit sketchy.  It was on a main busy road, with several small businesses nearby, but I didn't see people loitering or even walking on foot - it was mainly car traffic on the Pacific Coast Highway out front.  All in all, I felt my stay was well above average, and would come back again if I were staying on a tight budget.More</t>
   </si>
   <si>
+    <t>oldprune</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r139955207-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Jarred W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r121763468-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t xml:space="preserve">This place is small, old, close to the highway (traffic noise). But it's cheap, clean, 'remodeled,' and a good option if you need a room for the night. </t>
   </si>
   <si>
+    <t>pacislander81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r52139380-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -451,6 +493,9 @@
   </si>
   <si>
     <t>My husband and I stayed at the Econo Lodge for one night before an early flight out of LGB. Pros: Rooms have been updated and ours was very clean. I did not feel uncomfortable walking around in bare feet.  The family that runs it was friendly, even if they were a tad unprofessional and disorganized. Hot coffee and muffins in the morning. Nice BIG LCD flat screen TV came in very handy for the bowl game that night. Cons: It is on the PCH and the traffic noise is loud and constant. Parking is a joke. If you don't grab one of about 4 spots in front you are forced into a dark scary back lot. In room appliances are super loud, but I simply unplugged everything for the night. This was the second most uncomfortable bed I have ever slept in; hard as a rock! (The first most uncomfortable bed was on the Queen Mary, also in Long Beach) If you are looking for some entertainment, perhaps head next door to the "Out of the Closet" thrift store. They advertise "FREE HIV TESTING". For one night it was tolerable, but I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>M_Sahli</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r23138724-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -976,43 +1021,47 @@
       <c r="A2" t="n">
         <v>18775</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1032,50 +1081,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>18775</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>142913</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1093,50 +1146,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>18775</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1154,50 +1211,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>18775</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>115093</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1211,50 +1272,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>18775</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>25164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1274,41 +1339,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>18775</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>142914</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1337,50 +1406,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>18775</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>142915</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1394,50 +1467,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>18775</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>17008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1461,41 +1538,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>18775</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>142916</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
@@ -1514,50 +1595,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>18775</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>2349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -1581,50 +1666,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>18775</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>142917</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1648,50 +1737,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>18775</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>19091</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1715,41 +1808,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>18775</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>38742</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
@@ -1778,50 +1875,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>18775</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>142918</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1845,50 +1946,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>18775</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>142919</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1912,7 +2017,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
@@ -1089,7 +1089,7 @@
         <v>18775</v>
       </c>
       <c r="B3" t="n">
-        <v>142913</v>
+        <v>174125</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -1347,7 +1347,7 @@
         <v>18775</v>
       </c>
       <c r="B7" t="n">
-        <v>142914</v>
+        <v>174126</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -1414,7 +1414,7 @@
         <v>18775</v>
       </c>
       <c r="B8" t="n">
-        <v>142915</v>
+        <v>174127</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -1546,7 +1546,7 @@
         <v>18775</v>
       </c>
       <c r="B10" t="n">
-        <v>142916</v>
+        <v>174128</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1674,7 +1674,7 @@
         <v>18775</v>
       </c>
       <c r="B12" t="n">
-        <v>142917</v>
+        <v>174129</v>
       </c>
       <c r="C12" t="s">
         <v>122</v>
@@ -1883,7 +1883,7 @@
         <v>18775</v>
       </c>
       <c r="B15" t="n">
-        <v>142918</v>
+        <v>174130</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -1954,7 +1954,7 @@
         <v>18775</v>
       </c>
       <c r="B16" t="n">
-        <v>142919</v>
+        <v>174131</v>
       </c>
       <c r="C16" t="s">
         <v>151</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_235.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Ruth S</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r580853494-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>1027016</t>
+  </si>
+  <si>
+    <t>580853494</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Stayed at Hotel beczusewe missed our plane Nov 17</t>
+  </si>
+  <si>
+    <t>Hotel was ok.  Nov 14, 2018  my card was charged again.  I call hotel and person says it was a glitch in computer.  When I ask him to credit me he says i have to dispute charge with my bank.  No apologies nothing..   they are crooks  do not give them your credit card info.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r565655654-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>565655654</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Worst customer service i have ever experienced.</t>
+  </si>
+  <si>
+    <t>I booked a two day stay and when I came back in the evening of day 2 found they had given my room away and was told there were no rooms available.  After an hour and half they "found" my reservation.  They were unwilling to offer any type of restitution for the frustration and inconvenience and took no responsibility for their mistake. They did not care at all when i told them i was going to file a customer complaint.  If you want to stay somewhere that doesn't care about their clientele, then this is the place for you.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r504617982-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
-    <t>32648</t>
-  </si>
-  <si>
-    <t>1027016</t>
-  </si>
-  <si>
     <t>504617982</t>
   </si>
   <si>
@@ -178,12 +217,6 @@
   </si>
   <si>
     <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>OA25</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r361920245-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -206,17 +239,11 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!
 We stayed here because it was conveniently close to the areas we came to visit. We paid for 2 nights and the guy charged us for 2 nights. Yet, we only got to stay 1 night! We got there April 1st to check out on April 3rd (got kicked out on April 2nd).
 My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was...ABSOLUTELY THE WORST PLACE WE HAVE EVER STAYED AT.  I DO NOT RECOMMEND THIS PLACE TO ANYONE!!!We stayed here because it was conveniently close to the areas we came to visit. We paid for 2 nights and the guy charged us for 2 nights. Yet, we only got to stay 1 night! We got there April 1st to check out on April 3rd (got kicked out on April 2nd).My husband and I left to see some attractions and when we got back our keys weren't working. Another guest had said that sometimes you had to go back to the desk to reactivate it. So we went to reactivate it (we confirmed our room and name on the reservation) and then headed back to our room. All of our items had been removed from the room we had reserved and our room had been checked out to someone else who we walked in on having sex on the bed we were going to be staying in! I was furious!!! The receptionist said he couldn't do anything about it and almost didn't give us back our items had I not yelled at him and demanded he call until he found it. I do not understand why he would even reactivate our room if "it wasn't ours anymore" or even why OUR name was on the reservation and then given to someone else!!! We lost our money and our vacation was ruined!!!More</t>
   </si>
   <si>
-    <t>John S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r350130653-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -238,7 +265,48 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Laurin B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r322235843-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>322235843</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Average hotel for a short stay. Service and treatment is bad.</t>
+  </si>
+  <si>
+    <t>Got to the room and realized that there was no iron or ironing board which was suppose to be one of the amenities that was mentioned on the website. I went to the front desk to tell the manager and he gives me an iron and an ironing board and tells me to bring them back the next morning...What makes this fool think after a very long flight I feel like ironing everything thing I plan on wearing during my trip in one night?! 
+I kept that iron until I checked out!
+The so called continental breakfast did not have many options. Just fruit, very small cups of coffee, and individually wrapped pastries.
+At one point it took them a very long time to bring me fresh towels.
+There was this one incident at the hotel when I was trying to get a good WiFi signal on my smartphone since free WiFi was one of the other amenities they had. The signal was not that good in my hotel room so I decided to go outside near the front entrance and started walking around looking down at my smartphone trying to get a better signal. This hotel is run by Indians (people from India) by the way. So, suddenly this hotel  employee comes outside and says, "Sir, is there a problem? My manager was watching you on the security camera and told me to ask you what was going on?"...Got to the room and realized that there was no iron or ironing board which was suppose to be one of the amenities that was mentioned on the website. I went to the front desk to tell the manager and he gives me an iron and an ironing board and tells me to bring them back the next morning...What makes this fool think after a very long flight I feel like ironing everything thing I plan on wearing during my trip in one night?! I kept that iron until I checked out!The so called continental breakfast did not have many options. Just fruit, very small cups of coffee, and individually wrapped pastries.At one point it took them a very long time to bring me fresh towels.There was this one incident at the hotel when I was trying to get a good WiFi signal on my smartphone since free WiFi was one of the other amenities they had. The signal was not that good in my hotel room so I decided to go outside near the front entrance and started walking around looking down at my smartphone trying to get a better signal. This hotel is run by Indians (people from India) by the way. So, suddenly this hotel  employee comes outside and says, "Sir, is there a problem? My manager was watching you on the security camera and told me to ask you what was going on?"These people are ridiculous and so silly. I was not doing anything but walking around looking down at my phone and minding my own business. And these clowns want to harass me like I was committing a crime. And when it is time to check out at 11 AM these people call you to make sure you are checking out at 11 AM.Since it was a short stay I did not expect anything fancy but the service and the treatment they gave me as a paying guest could have been much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Got to the room and realized that there was no iron or ironing board which was suppose to be one of the amenities that was mentioned on the website. I went to the front desk to tell the manager and he gives me an iron and an ironing board and tells me to bring them back the next morning...What makes this fool think after a very long flight I feel like ironing everything thing I plan on wearing during my trip in one night?! 
+I kept that iron until I checked out!
+The so called continental breakfast did not have many options. Just fruit, very small cups of coffee, and individually wrapped pastries.
+At one point it took them a very long time to bring me fresh towels.
+There was this one incident at the hotel when I was trying to get a good WiFi signal on my smartphone since free WiFi was one of the other amenities they had. The signal was not that good in my hotel room so I decided to go outside near the front entrance and started walking around looking down at my smartphone trying to get a better signal. This hotel is run by Indians (people from India) by the way. So, suddenly this hotel  employee comes outside and says, "Sir, is there a problem? My manager was watching you on the security camera and told me to ask you what was going on?"...Got to the room and realized that there was no iron or ironing board which was suppose to be one of the amenities that was mentioned on the website. I went to the front desk to tell the manager and he gives me an iron and an ironing board and tells me to bring them back the next morning...What makes this fool think after a very long flight I feel like ironing everything thing I plan on wearing during my trip in one night?! I kept that iron until I checked out!The so called continental breakfast did not have many options. Just fruit, very small cups of coffee, and individually wrapped pastries.At one point it took them a very long time to bring me fresh towels.There was this one incident at the hotel when I was trying to get a good WiFi signal on my smartphone since free WiFi was one of the other amenities they had. The signal was not that good in my hotel room so I decided to go outside near the front entrance and started walking around looking down at my smartphone trying to get a better signal. This hotel is run by Indians (people from India) by the way. So, suddenly this hotel  employee comes outside and says, "Sir, is there a problem? My manager was watching you on the security camera and told me to ask you what was going on?"These people are ridiculous and so silly. I was not doing anything but walking around looking down at my phone and minding my own business. And these clowns want to harass me like I was committing a crime. And when it is time to check out at 11 AM these people call you to make sure you are checking out at 11 AM.Since it was a short stay I did not expect anything fancy but the service and the treatment they gave me as a paying guest could have been much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r291113392-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>291113392</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>will not pay for my dog to stay at this roach motel.</t>
+  </si>
+  <si>
+    <t>the pictures was all deceiveing, lies, the room was very small we could barely walk around the room, the night stands was truned side ways due to not enough room, the bed was hard as a brick, the customer service was very very unprofessional, the man who was working he was very, very,very rude and disrespectful, he barely was able to speak English, the free breakfast was nothing at all on the pictures, the room smelled bad, the parking was barely any, we had too park in the back, ONCE AGAIN CUSTOMER SERVICE WAS JUST HORRIBLE HORRIBLE, DISRESPECTFUL WORKERS, VERY MEAN TO CUSTOMERS.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r288336431-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -256,15 +324,9 @@
     <t>Straight facts -the beds are hard like sleeping in the floor would be better - the walls are thin. You hear everything outside even street noise - there is 4 parking spots and a handi cap spot in the "main" lot. Then you have to park in the back. Which is almost impossible with a larger vehicle suv or truck. -rooms are super small -there is mold in the bathroom -no top lock on the door. So your door only locks from the outside However for the price. Under 100$ a night. I have seen worse.  So over all not to bad but not great. Pictures include the parking area.  The spot of mold and the dirty window and the sink area.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Straight facts -the beds are hard like sleeping in the floor would be better - the walls are thin. You hear everything outside even street noise - there is 4 parking spots and a handi cap spot in the "main" lot. Then you have to park in the back. Which is almost impossible with a larger vehicle suv or truck. -rooms are super small -there is mold in the bathroom -no top lock on the door. So your door only locks from the outside However for the price. Under 100$ a night. I have seen worse.  So over all not to bad but not great. Pictures include the parking area.  The spot of mold and the dirty window and the sink area.More</t>
   </si>
   <si>
-    <t>Glenn M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r251656025-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -283,9 +345,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Kperry1234</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r217348687-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -301,7 +360,40 @@
     <t>These people are crooks. We had a flight delay and were unable to make it the first night. We called to ask if checking in over the phone would be fine and were told yes. The next day we went to check in and they said the reservation had been cancelled. The man working there lied to us and the booking agency. We ended up having to pay for a night and lost our reservation.</t>
   </si>
   <si>
-    <t>Martino C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r214725215-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>214725215</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was our first and last stay there.  Very limited parking, poor continental breakfast,  when told 3 people for a 2 bed room, refused to give 3 sets of towels till other family member complained. 3rd family was a child and we said "DOES THAT MEAN MY DAUGHTER CAN'T TAKE A SHORE FOR 8 Days."  They did finally give us a 3rd set every day for our 8 day stay.Their floor ( carpet ) was always dirty. You couldn't walk barefooted without your feet getting black. Our stay was from 6/27/14 to 7/5/2014 </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r212225760-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>212225760</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Will not stay again</t>
+  </si>
+  <si>
+    <t>I did not even last a night here. My party arrived early before check in around 1 pm and they did not allow us to check in early. Because we didn't have our room yet, we asked if they could store our bags as we did not have a car. They said they could but made us leave our bags outside. We left for a bite to eat and returned. When we were checking in, the woman at the front desk was rude and spoke minimal English. When we finally got our room there were several things wrong. There was a large hole in the blanket, mould in the caulking in the shower, the toilet paper roll was almost empty, and the door didn't shut properly. Not to mention there was no elevator to get our luggage upstairs. I called Choice Hotels who contacted the hotel. The manager came to take a look and brought the maid. We showed him the problems and he yelled at the maid in front of us (not at all professional) and claimed the black caulking was actually clean. He left and then without knocking, the maintence person barges into our room to recaulk the bathtub. We then get switched rooms. In the new room, the sheets were dirty. As we booked through Hotwire, I called and complained to them. I did get a refund. This is advertised as a 2 star but I've stayed...I did not even last a night here. My party arrived early before check in around 1 pm and they did not allow us to check in early. Because we didn't have our room yet, we asked if they could store our bags as we did not have a car. They said they could but made us leave our bags outside. We left for a bite to eat and returned. When we were checking in, the woman at the front desk was rude and spoke minimal English. When we finally got our room there were several things wrong. There was a large hole in the blanket, mould in the caulking in the shower, the toilet paper roll was almost empty, and the door didn't shut properly. Not to mention there was no elevator to get our luggage upstairs. I called Choice Hotels who contacted the hotel. The manager came to take a look and brought the maid. We showed him the problems and he yelled at the maid in front of us (not at all professional) and claimed the black caulking was actually clean. He left and then without knocking, the maintence person barges into our room to recaulk the bathtub. We then get switched rooms. In the new room, the sheets were dirty. As we booked through Hotwire, I called and complained to them. I did get a refund. This is advertised as a 2 star but I've stayed in hostels nicer than this. The beds were rock hard and the rooms were very dark and dingey.MoreShow less</t>
+  </si>
+  <si>
+    <t>I did not even last a night here. My party arrived early before check in around 1 pm and they did not allow us to check in early. Because we didn't have our room yet, we asked if they could store our bags as we did not have a car. They said they could but made us leave our bags outside. We left for a bite to eat and returned. When we were checking in, the woman at the front desk was rude and spoke minimal English. When we finally got our room there were several things wrong. There was a large hole in the blanket, mould in the caulking in the shower, the toilet paper roll was almost empty, and the door didn't shut properly. Not to mention there was no elevator to get our luggage upstairs. I called Choice Hotels who contacted the hotel. The manager came to take a look and brought the maid. We showed him the problems and he yelled at the maid in front of us (not at all professional) and claimed the black caulking was actually clean. He left and then without knocking, the maintence person barges into our room to recaulk the bathtub. We then get switched rooms. In the new room, the sheets were dirty. As we booked through Hotwire, I called and complained to them. I did get a refund. This is advertised as a 2 star but I've stayed...I did not even last a night here. My party arrived early before check in around 1 pm and they did not allow us to check in early. Because we didn't have our room yet, we asked if they could store our bags as we did not have a car. They said they could but made us leave our bags outside. We left for a bite to eat and returned. When we were checking in, the woman at the front desk was rude and spoke minimal English. When we finally got our room there were several things wrong. There was a large hole in the blanket, mould in the caulking in the shower, the toilet paper roll was almost empty, and the door didn't shut properly. Not to mention there was no elevator to get our luggage upstairs. I called Choice Hotels who contacted the hotel. The manager came to take a look and brought the maid. We showed him the problems and he yelled at the maid in front of us (not at all professional) and claimed the black caulking was actually clean. He left and then without knocking, the maintence person barges into our room to recaulk the bathtub. We then get switched rooms. In the new room, the sheets were dirty. As we booked through Hotwire, I called and complained to them. I did get a refund. This is advertised as a 2 star but I've stayed in hostels nicer than this. The beds were rock hard and the rooms were very dark and dingey.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r194460801-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -322,9 +414,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>D H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r190314269-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -346,9 +435,6 @@
     <t>This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird...This is probably the one of the worst places I have ever stayed.  From first glances, this appears like a decent place and maybe it was just the room we were stuck in which in actually the one right about the sign you see in the picture above (201). I should have known we were in for a rough night when we first pull into the "lot" of 4 parking spaces that you can not see in the picture to check in.  While I wait in the car in an illegal parking space and my husband checks in, we drop off our luggage at the curb and have to haul it up the stairs.  You have to park down this one way little alley with a steep incline in a small parking lot, which in the morning in the daylight does not look very safe, with a run down house bordering it and just plain shady. I'm glad we had a rental car and not my real car.  Upon entering the room, which was clean, we notice that there is no place to actually put a suitcase.   The "work station" the room was supposed to have was a nightstand at the side of the bed with the phone.  The room however did have a microwave and a refrigerator which apparently leaked because the floor was damped and musty smelling near there. The set up for the bathroom was just weird and awkward.  The shower stall and the toilet were directly next to the bed and you had to walk around the corner to the sink which was right next to the door.  There was absolutely no water pressure in the shower, no shelves to put shampoo or soap on and there was only one light bulb working about the mirror at the sink.  If all of this was not enough as the night went on, and we turned the TV off,  the traffic noise was just horrendous and sounded like a semi truck was coming through the wall at any point during the night. Then there was the constant rattling of the pipes in the bathroom keep us awake all night. Neither one of us got any sleep at all.   Morning could not come fast enough for us.  Breakfast here was a joke.  Pre-wrapped danishes and  warm Sunny Delight, but I  would not expect any more after the night I had just had.  Upon check out, I wanted to discuss my night with the clerk, however he was too busy outside dusting off his car in one of the four prime parking spots up top for guests and told me to just slide my key card through the slot in the bullet proof glass.    Customer Service at it's finest.More</t>
   </si>
   <si>
-    <t>TeacherReed</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r186639706-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -367,7 +453,46 @@
     <t>Good points: very convenient to airport without having to deal with airport noise.  Enclosed parking area is great if you get there early.  Neighborhood surrounding this small lodge appeared to be a good one. The outside of the lodge is well-kept.  Negative points: at first glance it looked okay, but in my opinion it could have been cleaner (check out the baseboards and along the floor edge). Bathroom was clean, except the tub appeared to have mold around the edge of the tub. Whoever made the bed doesn't know how to make a bed properly.  The breakfast was very scanty and kind of late (7:30) with only sweet offerings (apples should have been thrown out long ago).  My biggest complaint is that they wouldn't print out my boarding pass and so we had to wait until we got to the airport to do so (ended up okay since the airport was not busy). Really, with just a few small changes, this could be a great place to stay, especially if you are flying out of Long Beach airport.More</t>
   </si>
   <si>
-    <t>Kim H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r173047174-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>173047174</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Great Stay--Right Price!!</t>
+  </si>
+  <si>
+    <t>As with other reviewers, we were looking for an economical place to stay while we were in town to attend our religious convention being held nearby.  Our room was neat and clean and had everything we were looking for; TV, microwave, refrigerator.....and FREE Wi-Fi!!!  We made our reservation rather close to the date of our convention, so we were not able to get a non-smoking room, but the room we did get--smoking--did not have that nauseous reek of old cigarettes which usually haunt smoking rooms!  Since I have arthritis and cannot climb stairs, the room we received was handicap accessible--on the first floor, and ended up being around, and in a corner where we did not hear any noise from the parking lot or street traffic at all...and the ice machine was close by.The staff was accommodating and friendly and the lady in the office was VERY helpful!! I don't know why another reviewer reported that the staff was rude, as we found that not to be true at all.They do offer a free continental breakfast there; but we were never able to enjoy it...maybe next time!Some of the reviews I read on Trip Advisor said the area looked sketchy, but it is a general business area with lots of choices for where to go get something to eat.  We saw no evidence of sketchy activity or people in that area.We will definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>As with other reviewers, we were looking for an economical place to stay while we were in town to attend our religious convention being held nearby.  Our room was neat and clean and had everything we were looking for; TV, microwave, refrigerator.....and FREE Wi-Fi!!!  We made our reservation rather close to the date of our convention, so we were not able to get a non-smoking room, but the room we did get--smoking--did not have that nauseous reek of old cigarettes which usually haunt smoking rooms!  Since I have arthritis and cannot climb stairs, the room we received was handicap accessible--on the first floor, and ended up being around, and in a corner where we did not hear any noise from the parking lot or street traffic at all...and the ice machine was close by.The staff was accommodating and friendly and the lady in the office was VERY helpful!! I don't know why another reviewer reported that the staff was rude, as we found that not to be true at all.They do offer a free continental breakfast there; but we were never able to enjoy it...maybe next time!Some of the reviews I read on Trip Advisor said the area looked sketchy, but it is a general business area with lots of choices for where to go get something to eat.  We saw no evidence of sketchy activity or people in that area.We will definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r157390685-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>157390685</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Well located to shopping mall</t>
+  </si>
+  <si>
+    <t>The hotel turned out to be fairly well located as not having a car it was necessary to walk to find something to eat. There was a spa pool but I didn't get to use it. All duty managers were most helpful.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r147857809-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -379,16 +504,7 @@
     <t>12/21/2012</t>
   </si>
   <si>
-    <t>Room was nice. Staff were attentive.</t>
-  </si>
-  <si>
-    <t>After seeing some nasty reviews, I thought this place might be a dump, but it wasn't. The staff were courteous and the room was nice a clean. When a neighbor was opening and closing their door repetitively at 1am, the staff were attentive to my concerns. The hotel was on a busy street and the street noise was a bit bothersome, but I put in some earplugs and slept very comfortably--other than the neighbor problem, but that's not the management's fault.</t>
-  </si>
-  <si>
     <t>December 2012</t>
-  </si>
-  <si>
-    <t>daveengel1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r142068651-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -432,9 +548,6 @@
 The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like...I booked this room through Expedia and found it to be worth every penny I paid. I was looking for a budget hotel that was safe, clean, and had a parking spot.  This hotel was all of those 3 things. Being a big fan of a free breakfast, I chose this over other local budget hotels, because it did advertise the free continental breakfast.  I have booked many different budget hotels for myself when I travel solo, and this hotel exceeded my expectations in several ways!I stayed in a non-smoking King room.The room was clean and quiet and the staff were friendly.I did not have any concerns about the cleanliness of the bedding, carpeting, or anything else. I would say the decor was outdated, but the decor is not the reason I stayed here - the price is.I also agree with others that the bed was hard, but I didn't wake up with a sore back or neck, so I am not concerned about that.   The bathroom had soaps/shampoos, even some additional samples of other shampoos and deodorant which seemed odd, but was a nice touch.  There were linens for 2.  There was a TV with remote, dresser, two bedstands, and reading lights on the wall on each side of the king size bed. The room I stayed in also had a corner alcove with microwave, mini-fridge, and the sink for the room.  I personally like hotels where the sink is separate from the rest of the bathroom, but I could see how some people might not like that. The continental breakfast also exceeded my expectations.  As with any budget hotel around this price point, I expected a pre-wrapped danish and a coffee.  Those two were offered, but there was also Sunny D orange juice, bananas, apples, tangerines, croissants, and mini brownies (of which I took a few for the road!) + Free USA Today newspaper.  I was definitely impressed.  It was obvious that the staff cared about how the breakfast was laid out, too.  One additional point I'd like to make is that this hotel had free wi-fi.  I stay in hotels that are several price points higher when I am on the company dime, and those hotels often charge $10-15 to use the wi-fi.  I would never pay that, but to have FREE WIFI at this hotel was awesome.  The doors for the motel rooms face inward toward a parking lot, but I did not hear traffic or noise through the thick steel door.  The rooms also have electronic key card access, so that was also a plus.   Other people have said that the area looked a bit sketchy.  It was on a main busy road, with several small businesses nearby, but I didn't see people loitering or even walking on foot - it was mainly car traffic on the Pacific Coast Highway out front.  All in all, I felt my stay was well above average, and would come back again if I were staying on a tight budget.More</t>
   </si>
   <si>
-    <t>oldprune</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r139955207-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -453,7 +566,40 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Jarred W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r135022903-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>135022903</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Consider Econolodge to stay the night.</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was average.  For the value of the rate, the room was decent.  Our room was located right next to the ice box and soda vending machine, which was nice.  The mini fridge was very clean.  It had an ironing board and blow dryer.  The bathroom was clean.  The people running the motel were friendly.  We had no problems.  Although they offered free internet access we still brought our Clear Wireless and had full connection, which we never do, even where we live.  I'd stay here again.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r122062196-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>122062196</t>
+  </si>
+  <si>
+    <t>12/24/2011</t>
+  </si>
+  <si>
+    <t>Bed was horribly hard</t>
+  </si>
+  <si>
+    <t>We didn't end up staying the night because the bed was so hard - it felt like a piece of plywood.It was advertised that there was a whirlpool tub for two in our room - uh, no, unless you are two 5-year olds.Also the parking situation was very, very tight.  Hard to maneuver around the very small lot.Manager at first didn't want to give us our money back, but finally relented.We ended up going to the Quality Inn down the street which was much better!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r121763468-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
@@ -471,9 +617,6 @@
     <t xml:space="preserve">This place is small, old, close to the highway (traffic noise). But it's cheap, clean, 'remodeled,' and a good option if you need a room for the night. </t>
   </si>
   <si>
-    <t>pacislander81</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r52139380-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -495,9 +638,6 @@
     <t>My husband and I stayed at the Econo Lodge for one night before an early flight out of LGB. Pros: Rooms have been updated and ours was very clean. I did not feel uncomfortable walking around in bare feet.  The family that runs it was friendly, even if they were a tad unprofessional and disorganized. Hot coffee and muffins in the morning. Nice BIG LCD flat screen TV came in very handy for the bowl game that night. Cons: It is on the PCH and the traffic noise is loud and constant. Parking is a joke. If you don't grab one of about 4 spots in front you are forced into a dark scary back lot. In room appliances are super loud, but I simply unplugged everything for the night. This was the second most uncomfortable bed I have ever slept in; hard as a rock! (The first most uncomfortable bed was on the Queen Mary, also in Long Beach) If you are looking for some entertainment, perhaps head next door to the "Out of the Closet" thrift store. They advertise "FREE HIV TESTING". For one night it was tolerable, but I will never stay here again.More</t>
   </si>
   <si>
-    <t>M_Sahli</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r23138724-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -517,6 +657,67 @@
   </si>
   <si>
     <t>PROS:The rooms were newly renovated.. they are LARGE.. at least my room.. 202. Flat TV.. fridge.. microwave.. CONS:No coffee maker in the room.. no alarm clock.. no 24-hr coffee at the reception (as I used to in other EconoLodge's).. no facial tissues.. Lousy breakfast of only 3 types of packaged pastry and coffee.. I hope these missing things are all just because it is renovated and that they will fix this.. however, the reception lady was not very friendly and when I asked about the coffee maker she said they are only required in the suite rooms.. although she allowed me to use the coffee maker down there to make my coffee myself.. (yeah.. i had to get the water and the coffee..!!!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r22863281-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>22863281</t>
+  </si>
+  <si>
+    <t>12/19/2008</t>
+  </si>
+  <si>
+    <t>Not a very inviting place</t>
+  </si>
+  <si>
+    <t>I was staying in Long Beach to have a vehical repaired and found this place online for "fairly cheap", so i tried it.
+W O W.. not to inviting to say the least!.
+A very small small place, i actually drove right past it and had to turn around... wish i had kept going.
+Upon entering the place, you notice a skimpy little check-in room, AND A VERY SMALL PARKING LOT!!! 4 SPACES.... AND ONE IS A HANDI CAP.  { IM  NOT KIDDING }
+The place gives off a very bad vibe,  drab paint, dull colors.
+The check in clerk was, well,  not from America lets say.
+They didnt even have my correct change, and she said she would have someone come up to my room later with my $20.00 later. They never did!!
+I had to go back down and request my change, this may sound trivial, but this is not customer service, having to chase after your change from a motel.
+The whole place just didnt seem right , it had a bad feel.
+If you want quit... sorry, not happening here!!  PCH is very loud and i even had a room towards the back. Traffic at  all hours.
+The room "was ok", but not great. It was just short of nice.
+The floor creeked when you walked acrossed it, and you could feel it give way under your feet. It had a "motel 6 " bathroom, just...I was staying in Long Beach to have a vehical repaired and found this place online for "fairly cheap", so i tried it.W O W.. not to inviting to say the least!.A very small small place, i actually drove right past it and had to turn around... wish i had kept going.Upon entering the place, you notice a skimpy little check-in room, AND A VERY SMALL PARKING LOT!!! 4 SPACES.... AND ONE IS A HANDI CAP.  { IM  NOT KIDDING }The place gives off a very bad vibe,  drab paint, dull colors.The check in clerk was, well,  not from America lets say.They didnt even have my correct change, and she said she would have someone come up to my room later with my $20.00 later. They never did!!I had to go back down and request my change, this may sound trivial, but this is not customer service, having to chase after your change from a motel.The whole place just didnt seem right , it had a bad feel.If you want quit... sorry, not happening here!!  PCH is very loud and i even had a room towards the back. Traffic at  all hours.The room "was ok", but not great. It was just short of nice.The floor creeked when you walked acrossed it, and you could feel it give way under your feet. It had a "motel 6 " bathroom, just a small pull around shower curtin . {cheesy} low water pressure.TV was large size, but no listings. It changed channels so slow that by the time you made it thru, the shows were over. Annoying.If you are staying just one nite, it would be ok i guess, but for $70.00 , there are many other places in the area, and with a laundry room maybe??? geeze...My whole take.... not worth it, and not recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was staying in Long Beach to have a vehical repaired and found this place online for "fairly cheap", so i tried it.
+W O W.. not to inviting to say the least!.
+A very small small place, i actually drove right past it and had to turn around... wish i had kept going.
+Upon entering the place, you notice a skimpy little check-in room, AND A VERY SMALL PARKING LOT!!! 4 SPACES.... AND ONE IS A HANDI CAP.  { IM  NOT KIDDING }
+The place gives off a very bad vibe,  drab paint, dull colors.
+The check in clerk was, well,  not from America lets say.
+They didnt even have my correct change, and she said she would have someone come up to my room later with my $20.00 later. They never did!!
+I had to go back down and request my change, this may sound trivial, but this is not customer service, having to chase after your change from a motel.
+The whole place just didnt seem right , it had a bad feel.
+If you want quit... sorry, not happening here!!  PCH is very loud and i even had a room towards the back. Traffic at  all hours.
+The room "was ok", but not great. It was just short of nice.
+The floor creeked when you walked acrossed it, and you could feel it give way under your feet. It had a "motel 6 " bathroom, just...I was staying in Long Beach to have a vehical repaired and found this place online for "fairly cheap", so i tried it.W O W.. not to inviting to say the least!.A very small small place, i actually drove right past it and had to turn around... wish i had kept going.Upon entering the place, you notice a skimpy little check-in room, AND A VERY SMALL PARKING LOT!!! 4 SPACES.... AND ONE IS A HANDI CAP.  { IM  NOT KIDDING }The place gives off a very bad vibe,  drab paint, dull colors.The check in clerk was, well,  not from America lets say.They didnt even have my correct change, and she said she would have someone come up to my room later with my $20.00 later. They never did!!I had to go back down and request my change, this may sound trivial, but this is not customer service, having to chase after your change from a motel.The whole place just didnt seem right , it had a bad feel.If you want quit... sorry, not happening here!!  PCH is very loud and i even had a room towards the back. Traffic at  all hours.The room "was ok", but not great. It was just short of nice.The floor creeked when you walked acrossed it, and you could feel it give way under your feet. It had a "motel 6 " bathroom, just a small pull around shower curtin . {cheesy} low water pressure.TV was large size, but no listings. It changed channels so slow that by the time you made it thru, the shows were over. Annoying.If you are staying just one nite, it would be ok i guess, but for $70.00 , there are many other places in the area, and with a laundry room maybe??? geeze...My whole take.... not worth it, and not recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d1027016-r21105190-Econo_Lodge_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>21105190</t>
+  </si>
+  <si>
+    <t>10/22/2008</t>
+  </si>
+  <si>
+    <t>Good Value for The Money</t>
+  </si>
+  <si>
+    <t>Ok, in October, just before I booked there were 4 positive reviews. This is not to dispute them, but to add subtle details.We stayed for $65. plus for one night. I would only go back if I was alone. You do need to book a rear room. PCH is alive day and night. The are only four park spots inside the C shaped motel. One Handicap slot. One way traffic in/out. The parking exit is like a small tunnel. ie For small cars only. My 87 Nissan pick -up looked to be close.  I don't think my Explorer would have fit. So all the overflow parking is behind the building, semi -residental with Cameras. The 3 or 4 times I was in the lot, ie go to car, get ice, there was a lookout peeking out of a ground floor room. They were twenty somethings, I observed when one was smoking outside.There is a Urgent Care between the Traffic Circle and the Hotel.Never heard Sirens.The hotel is on the edge of a nicer long beach.  1000 yards from the traffic circle and a Ralphs. Not far from Seal Beach, Nice dining/shopping.MarshallGulchMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Ok, in October, just before I booked there were 4 positive reviews. This is not to dispute them, but to add subtle details.We stayed for $65. plus for one night. I would only go back if I was alone. You do need to book a rear room. PCH is alive day and night. The are only four park spots inside the C shaped motel. One Handicap slot. One way traffic in/out. The parking exit is like a small tunnel. ie For small cars only. My 87 Nissan pick -up looked to be close.  I don't think my Explorer would have fit. So all the overflow parking is behind the building, semi -residental with Cameras. The 3 or 4 times I was in the lot, ie go to car, get ice, there was a lookout peeking out of a ground floor room. They were twenty somethings, I observed when one was smoking outside.There is a Urgent Care between the Traffic Circle and the Hotel.Never heard Sirens.The hotel is on the edge of a nicer long beach.  1000 yards from the traffic circle and a Ralphs. Not far from Seal Beach, Nice dining/shopping.MarshallGulchMore</t>
   </si>
 </sst>
 </file>
@@ -1021,59 +1222,53 @@
       <c r="A2" t="n">
         <v>18775</v>
       </c>
-      <c r="B2" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
         <v>3</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1081,129 +1276,119 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>18775</v>
       </c>
-      <c r="B3" t="n">
-        <v>174125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>18775</v>
       </c>
-      <c r="B4" t="n">
-        <v>6540</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1211,127 +1396,121 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>18775</v>
       </c>
-      <c r="B5" t="n">
-        <v>115093</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>18775</v>
       </c>
-      <c r="B6" t="n">
-        <v>25164</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1339,66 +1518,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>18775</v>
       </c>
-      <c r="B7" t="n">
-        <v>174126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1406,259 +1581,245 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>18775</v>
       </c>
-      <c r="B8" t="n">
-        <v>174127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>18775</v>
       </c>
-      <c r="B9" t="n">
-        <v>17008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>18775</v>
       </c>
-      <c r="B10" t="n">
-        <v>174128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>18775</v>
       </c>
-      <c r="B11" t="n">
-        <v>2349</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" t="s">
-        <v>71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1666,137 +1827,115 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>18775</v>
       </c>
-      <c r="B12" t="n">
-        <v>174129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>18775</v>
       </c>
-      <c r="B13" t="n">
-        <v>19091</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
         <v>2</v>
       </c>
-      <c r="N13" t="s">
-        <v>136</v>
-      </c>
-      <c r="O13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -1808,137 +1947,123 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>18775</v>
       </c>
-      <c r="B14" t="n">
-        <v>38742</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>18775</v>
       </c>
-      <c r="B15" t="n">
-        <v>174130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1946,78 +2071,854 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>18775</v>
       </c>
-      <c r="B16" t="n">
-        <v>174131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>18775</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
